--- a/esc_cplc_output.xlsx
+++ b/esc_cplc_output.xlsx
@@ -14,42 +14,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>reseller</t>
   </si>
   <si>
-    <t>esc_terminate</t>
-  </si>
-  <si>
-    <t>esc_compliance_L2</t>
+    <t>ESC_store</t>
+  </si>
+  <si>
+    <t>抓货w/issue</t>
+  </si>
+  <si>
+    <t>抓货wo/issue</t>
+  </si>
+  <si>
+    <t>上海麦连网络科技有限公司</t>
+  </si>
+  <si>
+    <t>山东亿达数码有限公司</t>
+  </si>
+  <si>
+    <t>珠海市橙通科技有限公司</t>
+  </si>
+  <si>
+    <t>上海瑞技计算机科技有限公司</t>
+  </si>
+  <si>
+    <t>大连星云商贸有限公司</t>
   </si>
   <si>
     <t>三亚观点科技有限公司</t>
   </si>
   <si>
-    <t>上海瑞技计算机科技有限公司</t>
-  </si>
-  <si>
-    <t>上海麦连网络科技有限公司</t>
-  </si>
-  <si>
     <t>包头市智讯商贸有限公司</t>
   </si>
   <si>
-    <t>大连星云商贸有限公司</t>
-  </si>
-  <si>
-    <t>山东亿达数码有限公司</t>
-  </si>
-  <si>
-    <t>珠海市橙通科技有限公司</t>
-  </si>
-  <si>
     <t>长春市星杰数码科技有限公司</t>
   </si>
   <si>
-    <t>N</t>
+    <t>常州经开区 ESC Store</t>
+  </si>
+  <si>
+    <t>烟台高新区 ESC Store</t>
+  </si>
+  <si>
+    <t>嘉兴经开区 ESC Store</t>
+  </si>
+  <si>
+    <t>珠海南方软件园 ESC Store</t>
+  </si>
+  <si>
+    <t>上海闵行 ESC Store</t>
+  </si>
+  <si>
+    <t>济南高新区 ESC Store</t>
+  </si>
+  <si>
+    <t>东莞天安数码城 ESC Store</t>
+  </si>
+  <si>
+    <t>沈阳浑南高新区 ESC Store</t>
+  </si>
+  <si>
+    <t>绍兴滨海新区 ESC Store</t>
+  </si>
+  <si>
+    <t>中山火炬高新区 ESC Store</t>
+  </si>
+  <si>
+    <t>青岛市北区 ESC Store</t>
+  </si>
+  <si>
+    <t>大连高新区 ESC Store</t>
+  </si>
+  <si>
+    <t>海口龙华区 ESC Store</t>
+  </si>
+  <si>
+    <t>无锡经开区 ESC Store</t>
+  </si>
+  <si>
+    <t>昆山经开区 ESC Store</t>
+  </si>
+  <si>
+    <t>淄博新区 ESC Store</t>
+  </si>
+  <si>
+    <t>包头稀土高新区 ESC Store</t>
+  </si>
+  <si>
+    <t>长春高新北区 ESC Store</t>
   </si>
 </sst>
 </file>
@@ -407,13 +461,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,93 +477,260 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
